--- a/docs/base/StructureDefinition-lt-observation.xlsx
+++ b/docs/base/StructureDefinition-lt-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -642,7 +642,7 @@
     <t>Observation.triggeredBy.observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.2.0)
 </t>
   </si>
   <si>
@@ -835,7 +835,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.1.0|https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.1.0|Procedure|5.0.0|Medication|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0|Procedure|5.0.0|Medication|5.0.0)
 </t>
   </si>
   <si>
@@ -889,7 +889,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-encounter|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-encounter|0.2.0)
 </t>
   </si>
   <si>
@@ -980,7 +980,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.1.0|https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner-role|0.1.0|https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner-role|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-organization|0.2.0)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>Observation.bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(BodyStructure|5.0.0)
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/base-r5/StructureDefinition/bodyStructure-eu-core|0.1.0)
 </t>
   </si>
   <si>
@@ -1455,7 +1455,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.1.0|QuestionnaireResponse|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.2.0|QuestionnaireResponse|5.0.0)
 </t>
   </si>
   <si>
@@ -1474,7 +1474,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|QuestionnaireResponse|5.0.0|https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.1.0)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|QuestionnaireResponse|5.0.0|https://hl7.lt/fhir/base/StructureDefinition/lt-observation|0.2.0)
 </t>
   </si>
   <si>
@@ -6173,7 +6173,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>367</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>95</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>
